--- a/Document/STPWithAPITestData.xlsx
+++ b/Document/STPWithAPITestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="additionalDatail" sheetId="1" state="visible" r:id="rId2"/>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">PF002</t>
   </si>
   <si>
-    <t xml:space="preserve">OTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ytryrtr</t>
+    <t xml:space="preserve">ADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adarsh</t>
   </si>
   <si>
     <t xml:space="preserve">decision</t>
@@ -468,10 +468,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -587,6 +586,7 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -696,19 +696,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -795,9 +795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>527760</xdr:colOff>
+      <xdr:colOff>527400</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -811,7 +811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2438280" y="0"/>
-          <a:ext cx="13532760" cy="7336800"/>
+          <a:ext cx="13532400" cy="7336440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,9 +832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>528120</xdr:colOff>
+      <xdr:colOff>527760</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -848,7 +848,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16256160" y="0"/>
-          <a:ext cx="13532760" cy="7336800"/>
+          <a:ext cx="13532400" cy="7336440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1319,7 +1319,7 @@
   </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="n">
@@ -1943,16 +1943,16 @@
       <c r="C2" s="16" t="n">
         <v>40000</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="18" t="n">
@@ -1964,13 +1964,13 @@
       <c r="J2" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2040,7 +2040,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="n">
@@ -2049,16 +2049,16 @@
       <c r="C2" s="16" t="n">
         <v>340000</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="18" t="n">
@@ -2070,13 +2070,13 @@
       <c r="J2" s="16" t="n">
         <v>4000</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2246,8 +2246,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2326,7 +2326,7 @@
         <v>71</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>45408</v>
+        <v>45499</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>9876876786</v>
